--- a/medicine/Enfance/Victor_Doublet/Victor_Doublet.xlsx
+++ b/medicine/Enfance/Victor_Doublet/Victor_Doublet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victor Doublet, né à Orléans le 28 mars 1806 et mort à Saint-Germain-en-Laye le 2 août 1874[1], est un écrivain français, enseignant, auteur de nombreux ouvrages didactiques pour la jeunesse, d'ouvrages alliant morale et littérature, et d'ouvrages historiques. Il fut professeur de Belles-Lettres et de Langues étrangères à Bourges. Aucune photo, ni image de Victor Doublet n'est connue ; par contre, son profil se trouve gravé sur une pièce de monnaie commémorative.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Doublet, né à Orléans le 28 mars 1806 et mort à Saint-Germain-en-Laye le 2 août 1874, est un écrivain français, enseignant, auteur de nombreux ouvrages didactiques pour la jeunesse, d'ouvrages alliant morale et littérature, et d'ouvrages historiques. Il fut professeur de Belles-Lettres et de Langues étrangères à Bourges. Aucune photo, ni image de Victor Doublet n'est connue ; par contre, son profil se trouve gravé sur une pièce de monnaie commémorative.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amalia Corsini ou l’Orpheline de Sienne (Alfred Mame &amp; Cie, 1840, in-12)
 Vie D.S.A. D.Carlos V De Bourbon, Roi d'Espagne.A Bourges Chez l'Auteur V.Doublet 1841.Broché.312pp.in octavo.
